--- a/public/templates/template-checksheet-headcrane.xlsx
+++ b/public/templates/template-checksheet-headcrane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ale\sisca\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526801A2-F482-42D3-85C8-6C29CD9420D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAFC84-A518-45A8-BA25-7A9FF645116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18B05514-F5A7-4659-94E5-A7D8E7041A8B}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>NO FORM : FRM-MTE-S11-542-02</t>
   </si>
   <si>
-    <t>NO MESIN</t>
-  </si>
-  <si>
     <t>LOKASI</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>Jika ada abnormal yang ditemukan segera laporkan ke atasan</t>
+  </si>
+  <si>
+    <t>NO HEADCRANE</t>
   </si>
 </sst>
 </file>
@@ -872,6 +872,171 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -881,6 +1046,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,189 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,54 +1091,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>284019</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1902776</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>388621</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E785B3-04EE-48F3-BE67-43C4906F675C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="48323" t="49485" r="30811" b="38795"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="284019" y="138545"/>
-          <a:ext cx="1951266" cy="2162003"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1461,7 +1413,7 @@
   <dimension ref="A1:AW47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:AD5"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1476,48 +1428,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="82" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="88" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="90"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="71"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -1531,46 +1483,46 @@
       <c r="AW1" s="2"/>
     </row>
     <row r="2" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="91" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="93"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
@@ -1584,48 +1536,48 @@
       <c r="AW2" s="2"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="94" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="67"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
@@ -1639,46 +1591,46 @@
       <c r="AW3" s="3"/>
     </row>
     <row r="4" spans="1:49" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="67"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="46"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
@@ -1692,46 +1644,46 @@
       <c r="AW4" s="3"/>
     </row>
     <row r="5" spans="1:49" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="73"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="52"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
@@ -1745,69 +1697,69 @@
       <c r="AW5" s="3"/>
     </row>
     <row r="6" spans="1:49" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="C6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="D6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="F6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="G6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="H6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="65"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="74"/>
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="64"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="5">
         <v>1</v>
       </c>
@@ -1907,22 +1859,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1957,26 +1909,26 @@
       <c r="AL8" s="7"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48">
+      <c r="A9" s="75">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2011,22 +1963,22 @@
       <c r="AL9" s="15"/>
     </row>
     <row r="10" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -2061,22 +2013,22 @@
       <c r="AL10" s="15"/>
     </row>
     <row r="11" spans="1:49" ht="36" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -2111,176 +2063,176 @@
       <c r="AL11" s="15"/>
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="84"/>
+    </row>
+    <row r="13" spans="1:49" ht="36" x14ac:dyDescent="0.35">
+      <c r="A13" s="76"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="84"/>
+    </row>
+    <row r="14" spans="1:49" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="84"/>
+    </row>
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="75">
+        <v>3</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="63"/>
-    </row>
-    <row r="13" spans="1:49" ht="36" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="G15" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="63"/>
-    </row>
-    <row r="14" spans="1:49" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="63"/>
-    </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48">
-        <v>3</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -2315,22 +2267,22 @@
       <c r="AL15" s="15"/>
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -2365,22 +2317,22 @@
       <c r="AL16" s="15"/>
     </row>
     <row r="17" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2415,176 +2367,176 @@
       <c r="AL17" s="15"/>
     </row>
     <row r="18" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="84"/>
+    </row>
+    <row r="19" spans="1:38" ht="36" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="84"/>
+    </row>
+    <row r="20" spans="1:38" ht="36" x14ac:dyDescent="0.35">
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="84"/>
+    </row>
+    <row r="21" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="53">
+        <v>4</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="63"/>
-    </row>
-    <row r="19" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="G21" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A20" s="55"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="63"/>
-    </row>
-    <row r="21" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52">
-        <v>4</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -2619,22 +2571,22 @@
       <c r="AL21" s="15"/>
     </row>
     <row r="22" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -2669,22 +2621,22 @@
       <c r="AL22" s="15"/>
     </row>
     <row r="23" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -2719,22 +2671,22 @@
       <c r="AL23" s="15"/>
     </row>
     <row r="24" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -2769,22 +2721,22 @@
       <c r="AL24" s="15"/>
     </row>
     <row r="25" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -2819,26 +2771,26 @@
       <c r="AL25" s="15"/>
     </row>
     <row r="26" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48">
+      <c r="A26" s="75">
         <v>5</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>46</v>
+      <c r="B26" s="86" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -2873,22 +2825,22 @@
       <c r="AL26" s="15"/>
     </row>
     <row r="27" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -2923,22 +2875,22 @@
       <c r="AL27" s="15"/>
     </row>
     <row r="28" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -2973,22 +2925,22 @@
       <c r="AL28" s="15"/>
     </row>
     <row r="29" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -3023,22 +2975,22 @@
       <c r="AL29" s="15"/>
     </row>
     <row r="30" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -3073,26 +3025,26 @@
       <c r="AL30" s="15"/>
     </row>
     <row r="31" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A31" s="52">
+      <c r="A31" s="53">
         <v>6</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -3127,22 +3079,22 @@
       <c r="AL31" s="15"/>
     </row>
     <row r="32" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -3177,22 +3129,22 @@
       <c r="AL32" s="15"/>
     </row>
     <row r="33" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -3227,26 +3179,26 @@
       <c r="AL33" s="15"/>
     </row>
     <row r="34" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A34" s="48">
+      <c r="A34" s="75">
         <v>7</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="E34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="G34" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -3281,22 +3233,22 @@
       <c r="AL34" s="15"/>
     </row>
     <row r="35" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="G35" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -3331,26 +3283,26 @@
       <c r="AL35" s="15"/>
     </row>
     <row r="36" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A36" s="52">
+      <c r="A36" s="53">
         <v>8</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -3385,22 +3337,22 @@
       <c r="AL36" s="15"/>
     </row>
     <row r="37" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -3435,22 +3387,22 @@
       <c r="AL37" s="15"/>
     </row>
     <row r="38" spans="1:38" ht="36" x14ac:dyDescent="0.35">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="G38" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -3489,22 +3441,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -3543,22 +3495,22 @@
         <v>10</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -3593,16 +3545,16 @@
       <c r="AL40" s="15"/>
     </row>
     <row r="41" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="A41" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="20"/>
       <c r="G41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -3637,184 +3589,184 @@
       <c r="AL41" s="15"/>
     </row>
     <row r="42" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
+      <c r="A42" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="20"/>
       <c r="G42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="93"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="98"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="98"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="98"/>
+      <c r="AJ42" s="93"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="95"/>
+    </row>
+    <row r="43" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="47"/>
-    </row>
-    <row r="43" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="21"/>
       <c r="G43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="93"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="94"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="94"/>
+      <c r="AG43" s="94"/>
+      <c r="AH43" s="94"/>
+      <c r="AI43" s="94"/>
+      <c r="AJ43" s="94"/>
+      <c r="AK43" s="94"/>
+      <c r="AL43" s="95"/>
+    </row>
+    <row r="44" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="47"/>
-    </row>
-    <row r="44" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="H44" s="93"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="99"/>
+      <c r="AE44" s="99"/>
+      <c r="AF44" s="99"/>
+      <c r="AG44" s="99"/>
+      <c r="AH44" s="99"/>
+      <c r="AI44" s="99"/>
+      <c r="AJ44" s="99"/>
+      <c r="AK44" s="99"/>
+      <c r="AL44" s="100"/>
     </row>
     <row r="45" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
+      <c r="A45" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="21"/>
       <c r="G45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="99"/>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="99"/>
+      <c r="AK45" s="99"/>
+      <c r="AL45" s="100"/>
     </row>
     <row r="46" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -3848,7 +3800,7 @@
       <c r="AE46" s="23"/>
       <c r="AF46" s="23"/>
       <c r="AG46" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH46" s="26"/>
       <c r="AI46" s="26"/>
@@ -3857,11 +3809,11 @@
       <c r="AL46" s="27"/>
     </row>
     <row r="47" spans="1:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -3900,49 +3852,15 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C3:AD5"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AL4"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:AD2"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="H6:AL6"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="H12:W12"/>
-    <mergeCell ref="X12:AL12"/>
-    <mergeCell ref="H13:W13"/>
-    <mergeCell ref="X13:AL13"/>
-    <mergeCell ref="H14:W14"/>
-    <mergeCell ref="X14:AL14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="H18:W18"/>
-    <mergeCell ref="X18:AL18"/>
-    <mergeCell ref="H19:W19"/>
-    <mergeCell ref="X19:AL19"/>
-    <mergeCell ref="H20:W20"/>
-    <mergeCell ref="X20:AL20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="H45:AL45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="O44:U44"/>
+    <mergeCell ref="V44:AB44"/>
+    <mergeCell ref="AC44:AI44"/>
+    <mergeCell ref="AJ44:AL44"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="H43:AL43"/>
     <mergeCell ref="A34:A35"/>
@@ -3956,17 +3874,50 @@
     <mergeCell ref="V42:AB42"/>
     <mergeCell ref="AC42:AI42"/>
     <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="H45:AL45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="O44:U44"/>
-    <mergeCell ref="V44:AB44"/>
-    <mergeCell ref="AC44:AI44"/>
-    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="H18:W18"/>
+    <mergeCell ref="X18:AL18"/>
+    <mergeCell ref="H19:W19"/>
+    <mergeCell ref="X19:AL19"/>
+    <mergeCell ref="H20:W20"/>
+    <mergeCell ref="X20:AL20"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="H6:AL6"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="H12:W12"/>
+    <mergeCell ref="X12:AL12"/>
+    <mergeCell ref="H13:W13"/>
+    <mergeCell ref="X13:AL13"/>
+    <mergeCell ref="H14:W14"/>
+    <mergeCell ref="X14:AL14"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:AD2"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C3:AD5"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>